--- a/Implementation/ResNet/Scratch/ResNetOnLFWConfigurations.xlsx
+++ b/Implementation/ResNet/Scratch/ResNetOnLFWConfigurations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e285d3782db16ac6/Desktop/Vicomtech/Repos/TFM_LuqueRicardo/Implementation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e285d3782db16ac6/Desktop/Vicomtech/Repos/TFM_RicardoLuque/Implementation/ResNet/Scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{631CBD94-638C-4B98-ADF7-E8C5C3EA406E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A052B6FE-D1A1-41E9-8890-895F4447CBC6}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{631CBD94-638C-4B98-ADF7-E8C5C3EA406E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D5EEE4D0-A432-448E-AB7C-EB44C9320FA6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1D28061-9B7A-4AF5-B74F-7E502815B0D2}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
   <si>
     <t>Optimizer</t>
   </si>
@@ -200,7 +199,19 @@
     <t>Similarly to SGD RMSprop yields poor results, for which adam is chosen to be the best optimizer</t>
   </si>
   <si>
-    <t>There's certain fear to overfitting therefore a regularizer is added to avoid this</t>
+    <t>Random State: 43</t>
+  </si>
+  <si>
+    <t>Random State: 44</t>
+  </si>
+  <si>
+    <t>Random State: 45</t>
+  </si>
+  <si>
+    <t>Random State: 46</t>
+  </si>
+  <si>
+    <t>L2</t>
   </si>
 </sst>
 </file>
@@ -285,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,14 +325,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F75E747-9025-4151-9724-B73BBA7EBA5A}">
-  <dimension ref="A2:T31"/>
+  <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,69 +684,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
@@ -751,12 +765,12 @@
       <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -798,10 +812,10 @@
       <c r="R5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -842,8 +856,8 @@
       <c r="R6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="12" t="s">
+      <c r="S6" s="12"/>
+      <c r="T6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -884,7 +898,7 @@
       <c r="R7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="9"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="1" t="s">
         <v>33</v>
       </c>
@@ -932,7 +946,7 @@
       <c r="R8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="9"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="1" t="s">
         <v>34</v>
       </c>
@@ -980,7 +994,7 @@
       <c r="R9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="9"/>
+      <c r="S9" s="12"/>
       <c r="T9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1028,7 +1042,7 @@
       <c r="R10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="9"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E11" s="1">
@@ -1073,7 +1087,7 @@
       <c r="R11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="S11" s="12"/>
       <c r="T11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1121,7 +1135,7 @@
       <c r="R12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="9"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1169,7 +1183,7 @@
       <c r="R13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="9"/>
+      <c r="S13" s="12"/>
       <c r="T13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1231,7 @@
       <c r="R14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="9"/>
+      <c r="S14" s="12"/>
       <c r="T14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1265,8 +1279,8 @@
       <c r="R15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="11" t="s">
+      <c r="S15" s="12"/>
+      <c r="T15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1313,7 +1327,7 @@
       <c r="R16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="9"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="5:20" ht="20.5" x14ac:dyDescent="0.35">
       <c r="E17" s="1">
@@ -1358,8 +1372,8 @@
       <c r="R17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="11" t="s">
+      <c r="S17" s="12"/>
+      <c r="T17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1406,8 +1420,8 @@
       <c r="R18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="12" t="s">
+      <c r="S18" s="12"/>
+      <c r="T18" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1454,7 +1468,7 @@
       <c r="R19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="9"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E20" s="1">
@@ -1499,7 +1513,7 @@
       <c r="R20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="9"/>
+      <c r="S20" s="12"/>
       <c r="T20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1547,7 +1561,7 @@
       <c r="R21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="9"/>
+      <c r="S21" s="12"/>
       <c r="T21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1595,7 +1609,7 @@
       <c r="R22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="9"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
@@ -1640,7 +1654,7 @@
       <c r="R23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="9"/>
+      <c r="S23" s="12"/>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1688,7 +1702,7 @@
       <c r="R24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S24" s="9"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
@@ -1733,7 +1747,7 @@
       <c r="R25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="9"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
@@ -1778,7 +1792,7 @@
       <c r="R26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="9"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
@@ -1790,29 +1804,29 @@
       <c r="G27" s="1">
         <v>100</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="1">
-        <v>0.99639999999999995</v>
+        <v>0.94210000000000005</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
       </c>
       <c r="M27" s="1">
-        <v>0.5736</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="N27" s="1">
-        <v>0.90990000000000004</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>12</v>
@@ -1823,9 +1837,8 @@
       <c r="R27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="1" t="s">
-        <v>47</v>
+      <c r="S27" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="5:20" x14ac:dyDescent="0.35">
@@ -1838,7 +1851,7 @@
       <c r="G28" s="8">
         <v>100</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="8">
         <v>1E-3</v>
       </c>
@@ -1846,16 +1859,16 @@
         <v>17</v>
       </c>
       <c r="K28" s="8">
-        <v>0.98350000000000004</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="L28" s="8">
         <v>1</v>
       </c>
       <c r="M28" s="8">
-        <v>0.86219999999999997</v>
+        <v>0.68510000000000004</v>
       </c>
       <c r="N28" s="8">
-        <v>0.94410000000000005</v>
+        <v>0.78820000000000001</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>27</v>
@@ -1869,7 +1882,7 @@
       <c r="R28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="9"/>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E29" s="8">
@@ -1881,7 +1894,7 @@
       <c r="G29" s="8">
         <v>100</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="8">
         <v>1E-3</v>
       </c>
@@ -1889,16 +1902,16 @@
         <v>17</v>
       </c>
       <c r="K29" s="8">
-        <v>0.97809999999999997</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="L29" s="8">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M29" s="8">
-        <v>0.74819999999999998</v>
+        <v>0.69389999999999996</v>
       </c>
       <c r="N29" s="8">
-        <v>0.9224</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>27</v>
@@ -1909,10 +1922,12 @@
       <c r="Q29" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="9"/>
+      <c r="S29" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E30" s="8">
@@ -1924,24 +1939,24 @@
       <c r="G30" s="8">
         <v>100</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="8">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="8">
-        <v>0.95269999999999999</v>
+        <v>0.84140000000000004</v>
       </c>
       <c r="L30" s="8">
-        <v>0.98550000000000004</v>
+        <v>1</v>
       </c>
       <c r="M30" s="8">
-        <v>0.88349999999999995</v>
+        <v>0.61709999999999998</v>
       </c>
       <c r="N30" s="8">
-        <v>0.91930000000000001</v>
+        <v>0.81589999999999996</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>27</v>
@@ -1955,7 +1970,7 @@
       <c r="R30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1969,24 +1984,24 @@
       <c r="G31" s="8">
         <v>100</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="8">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="8">
-        <v>0.99070000000000003</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="L31" s="8">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M31" s="8">
-        <v>0.91800000000000004</v>
+        <v>0.63139999999999996</v>
       </c>
       <c r="N31" s="8">
-        <v>0.93169999999999997</v>
+        <v>0.84179999999999999</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>27</v>
@@ -2004,8 +2019,241 @@
         <v>29</v>
       </c>
     </row>
+    <row r="32" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E32" s="8">
+        <v>28</v>
+      </c>
+      <c r="F32" s="8">
+        <v>64</v>
+      </c>
+      <c r="G32" s="8">
+        <v>100</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="5:19" x14ac:dyDescent="0.35">
+      <c r="E33" s="8">
+        <v>29</v>
+      </c>
+      <c r="F33" s="8">
+        <v>64</v>
+      </c>
+      <c r="G33" s="8">
+        <v>100</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.80389999999999995</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="5:19" x14ac:dyDescent="0.35">
+      <c r="E34" s="8">
+        <v>30</v>
+      </c>
+      <c r="F34" s="8">
+        <v>64</v>
+      </c>
+      <c r="G34" s="8">
+        <v>100</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="5:19" x14ac:dyDescent="0.35">
+      <c r="E35" s="8">
+        <v>31</v>
+      </c>
+      <c r="F35" s="8">
+        <v>64</v>
+      </c>
+      <c r="G35" s="8">
+        <v>100</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="5:19" x14ac:dyDescent="0.35">
+      <c r="E36" s="8">
+        <v>32</v>
+      </c>
+      <c r="F36" s="8">
+        <v>64</v>
+      </c>
+      <c r="G36" s="8">
+        <v>100</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.5877</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="S5:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="H27:H36"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="O2:O4"/>
@@ -2014,13 +2262,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="S5:S29"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Implementation/ResNet/Scratch/ResNetOnLFWConfigurations.xlsx
+++ b/Implementation/ResNet/Scratch/ResNetOnLFWConfigurations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e285d3782db16ac6/Desktop/Vicomtech/Repos/TFM_RicardoLuque/Implementation/ResNet/Scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{631CBD94-638C-4B98-ADF7-E8C5C3EA406E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D5EEE4D0-A432-448E-AB7C-EB44C9320FA6}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:1_{631CBD94-638C-4B98-ADF7-E8C5C3EA406E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{205B9FC4-09C9-42C5-97B9-E3B34C82A1FC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1D28061-9B7A-4AF5-B74F-7E502815B0D2}"/>
   </bookViews>
@@ -246,7 +246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +283,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,10 +349,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F75E747-9025-4151-9724-B73BBA7EBA5A}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,69 +711,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,12 +792,12 @@
       <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -812,7 +839,7 @@
       <c r="R5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="13" t="s">
         <v>31</v>
       </c>
       <c r="T5" s="11" t="s">
@@ -856,7 +883,7 @@
       <c r="R6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S6" s="13"/>
       <c r="T6" s="11" t="s">
         <v>32</v>
       </c>
@@ -898,7 +925,7 @@
       <c r="R7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="12"/>
+      <c r="S7" s="13"/>
       <c r="T7" s="1" t="s">
         <v>33</v>
       </c>
@@ -946,7 +973,7 @@
       <c r="R8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="12"/>
+      <c r="S8" s="13"/>
       <c r="T8" s="1" t="s">
         <v>34</v>
       </c>
@@ -994,7 +1021,7 @@
       <c r="R9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="12"/>
+      <c r="S9" s="13"/>
       <c r="T9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1042,7 +1069,7 @@
       <c r="R10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="12"/>
+      <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E11" s="1">
@@ -1087,7 +1114,7 @@
       <c r="R11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="12"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1135,7 +1162,7 @@
       <c r="R12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="12"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1210,7 @@
       <c r="R13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="12"/>
+      <c r="S13" s="13"/>
       <c r="T13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1231,7 +1258,7 @@
       <c r="R14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="12"/>
+      <c r="S14" s="13"/>
       <c r="T14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1279,7 +1306,7 @@
       <c r="R15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="12"/>
+      <c r="S15" s="13"/>
       <c r="T15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1354,7 @@
       <c r="R16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="12"/>
+      <c r="S16" s="13"/>
     </row>
     <row r="17" spans="5:20" ht="20.5" x14ac:dyDescent="0.35">
       <c r="E17" s="1">
@@ -1372,7 +1399,7 @@
       <c r="R17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="12"/>
+      <c r="S17" s="13"/>
       <c r="T17" s="10" t="s">
         <v>41</v>
       </c>
@@ -1420,7 +1447,7 @@
       <c r="R18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="12"/>
+      <c r="S18" s="13"/>
       <c r="T18" s="11" t="s">
         <v>42</v>
       </c>
@@ -1468,7 +1495,7 @@
       <c r="R19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="12"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E20" s="1">
@@ -1513,7 +1540,7 @@
       <c r="R20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="12"/>
+      <c r="S20" s="13"/>
       <c r="T20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1561,7 +1588,7 @@
       <c r="R21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="12"/>
+      <c r="S21" s="13"/>
       <c r="T21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1609,7 +1636,7 @@
       <c r="R22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="12"/>
+      <c r="S22" s="13"/>
     </row>
     <row r="23" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
@@ -1654,7 +1681,7 @@
       <c r="R23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="12"/>
+      <c r="S23" s="13"/>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1702,7 +1729,7 @@
       <c r="R24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S24" s="12"/>
+      <c r="S24" s="13"/>
     </row>
     <row r="25" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
@@ -1723,17 +1750,17 @@
       <c r="J25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="1">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="K25" s="16">
+        <v>0.94021999999999994</v>
+      </c>
+      <c r="L25" s="16">
         <v>1</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="16">
         <v>0.48199999999999998</v>
       </c>
-      <c r="N25" s="1">
-        <v>0.9224</v>
+      <c r="N25" s="16">
+        <v>0.77639999999999998</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>10</v>
@@ -1747,7 +1774,7 @@
       <c r="R25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="12"/>
+      <c r="S25" s="13"/>
     </row>
     <row r="26" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
@@ -1792,7 +1819,7 @@
       <c r="R26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="12"/>
+      <c r="S26" s="13"/>
     </row>
     <row r="27" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
@@ -1804,7 +1831,7 @@
       <c r="G27" s="1">
         <v>100</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="14" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1837,7 +1864,7 @@
       <c r="R27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="S27" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1851,7 +1878,7 @@
       <c r="G28" s="8">
         <v>100</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="8">
         <v>1E-3</v>
       </c>
@@ -1882,7 +1909,7 @@
       <c r="R28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="12"/>
+      <c r="S28" s="13"/>
     </row>
     <row r="29" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E29" s="8">
@@ -1894,7 +1921,7 @@
       <c r="G29" s="8">
         <v>100</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="8">
         <v>1E-3</v>
       </c>
@@ -1939,7 +1966,7 @@
       <c r="G30" s="8">
         <v>100</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="8">
         <v>1E-3</v>
       </c>
@@ -1975,32 +2002,32 @@
       </c>
     </row>
     <row r="31" spans="5:20" x14ac:dyDescent="0.35">
-      <c r="E31" s="8">
+      <c r="E31" s="12">
         <v>27</v>
       </c>
-      <c r="F31" s="8">
-        <v>64</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="12">
+        <v>64</v>
+      </c>
+      <c r="G31" s="12">
         <v>100</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="8">
+      <c r="H31" s="14"/>
+      <c r="I31" s="15">
         <v>1E-3</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="15">
         <v>0.92859999999999998</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="15">
         <v>1</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="15">
         <v>0.63139999999999996</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="15">
         <v>0.84179999999999999</v>
       </c>
       <c r="O31" s="8" t="s">
@@ -2029,7 +2056,7 @@
       <c r="G32" s="8">
         <v>100</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="1">
         <v>1E-3</v>
       </c>
@@ -2074,7 +2101,7 @@
       <c r="G33" s="8">
         <v>100</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="9">
         <v>1E-4</v>
       </c>
@@ -2119,7 +2146,7 @@
       <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="9">
         <v>1E-4</v>
       </c>
@@ -2164,7 +2191,7 @@
       <c r="G35" s="8">
         <v>100</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="9">
         <v>1E-4</v>
       </c>
@@ -2209,7 +2236,7 @@
       <c r="G36" s="8">
         <v>100</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="9">
         <v>1E-4</v>
       </c>

--- a/Implementation/ResNet/Scratch/ResNetOnLFWConfigurations.xlsx
+++ b/Implementation/ResNet/Scratch/ResNetOnLFWConfigurations.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e285d3782db16ac6/Desktop/Vicomtech/Repos/TFM_RicardoLuque/Implementation/ResNet/Scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:1_{631CBD94-638C-4B98-ADF7-E8C5C3EA406E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{205B9FC4-09C9-42C5-97B9-E3B34C82A1FC}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{631CBD94-638C-4B98-ADF7-E8C5C3EA406E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79D4B68B-37C9-475A-9D46-5C8E9AE66CCD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1D28061-9B7A-4AF5-B74F-7E502815B0D2}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{A1D28061-9B7A-4AF5-B74F-7E502815B0D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ResNet50" sheetId="1" r:id="rId1"/>
+    <sheet name="Xception" sheetId="4" r:id="rId2"/>
+    <sheet name="ResNet50V2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="60">
   <si>
     <t>Optimizer</t>
   </si>
@@ -213,12 +216,36 @@
   <si>
     <t>L2</t>
   </si>
+  <si>
+    <t>27 on original size</t>
+  </si>
+  <si>
+    <t>Inout Size</t>
+  </si>
+  <si>
+    <t>71x71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC AUC </t>
+  </si>
+  <si>
+    <t>ROC AUC/Threshold</t>
+  </si>
+  <si>
+    <t>299x299</t>
+  </si>
+  <si>
+    <t>Not trainable, RAM clashes</t>
+  </si>
+  <si>
+    <t>Size of embeddings</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +271,14 @@
       <color rgb="FF374970"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -314,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,13 +390,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F75E747-9025-4151-9724-B73BBA7EBA5A}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,69 +770,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,12 +851,12 @@
       <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -839,7 +898,7 @@
       <c r="R5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="T5" s="11" t="s">
@@ -883,7 +942,7 @@
       <c r="R6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="11" t="s">
         <v>32</v>
       </c>
@@ -925,7 +984,7 @@
       <c r="R7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="13"/>
+      <c r="S7" s="22"/>
       <c r="T7" s="1" t="s">
         <v>33</v>
       </c>
@@ -973,7 +1032,7 @@
       <c r="R8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="13"/>
+      <c r="S8" s="22"/>
       <c r="T8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1021,7 +1080,7 @@
       <c r="R9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="13"/>
+      <c r="S9" s="22"/>
       <c r="T9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1069,7 +1128,7 @@
       <c r="R10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="13"/>
+      <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E11" s="1">
@@ -1114,7 +1173,7 @@
       <c r="R11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="13"/>
+      <c r="S11" s="22"/>
       <c r="T11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1162,7 +1221,7 @@
       <c r="R12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="13"/>
+      <c r="S12" s="22"/>
       <c r="T12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1269,7 @@
       <c r="R13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="13"/>
+      <c r="S13" s="22"/>
       <c r="T13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1258,7 +1317,7 @@
       <c r="R14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="13"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1306,7 +1365,7 @@
       <c r="R15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="13"/>
+      <c r="S15" s="22"/>
       <c r="T15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1354,7 +1413,7 @@
       <c r="R16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="13"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" spans="5:20" ht="20.5" x14ac:dyDescent="0.35">
       <c r="E17" s="1">
@@ -1399,7 +1458,7 @@
       <c r="R17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="13"/>
+      <c r="S17" s="22"/>
       <c r="T17" s="10" t="s">
         <v>41</v>
       </c>
@@ -1447,7 +1506,7 @@
       <c r="R18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="13"/>
+      <c r="S18" s="22"/>
       <c r="T18" s="11" t="s">
         <v>42</v>
       </c>
@@ -1495,7 +1554,7 @@
       <c r="R19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="13"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E20" s="1">
@@ -1540,7 +1599,7 @@
       <c r="R20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="13"/>
+      <c r="S20" s="22"/>
       <c r="T20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1588,7 +1647,7 @@
       <c r="R21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1636,7 +1695,7 @@
       <c r="R22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="13"/>
+      <c r="S22" s="22"/>
     </row>
     <row r="23" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
@@ -1681,7 +1740,7 @@
       <c r="R23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="13"/>
+      <c r="S23" s="22"/>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1729,7 +1788,7 @@
       <c r="R24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S24" s="13"/>
+      <c r="S24" s="22"/>
     </row>
     <row r="25" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
@@ -1750,16 +1809,16 @@
       <c r="J25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <v>0.94021999999999994</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="15">
         <v>1</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="15">
         <v>0.48199999999999998</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="15">
         <v>0.77639999999999998</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -1774,7 +1833,7 @@
       <c r="R25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="13"/>
+      <c r="S25" s="22"/>
     </row>
     <row r="26" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
@@ -1819,7 +1878,7 @@
       <c r="R26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="13"/>
+      <c r="S26" s="22"/>
     </row>
     <row r="27" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
@@ -1831,7 +1890,7 @@
       <c r="G27" s="1">
         <v>100</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="23" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1864,7 +1923,7 @@
       <c r="R27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1878,7 +1937,7 @@
       <c r="G28" s="8">
         <v>100</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="8">
         <v>1E-3</v>
       </c>
@@ -1909,7 +1968,7 @@
       <c r="R28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="13"/>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" spans="5:20" x14ac:dyDescent="0.35">
       <c r="E29" s="8">
@@ -1921,7 +1980,7 @@
       <c r="G29" s="8">
         <v>100</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="8">
         <v>1E-3</v>
       </c>
@@ -1966,7 +2025,7 @@
       <c r="G30" s="8">
         <v>100</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="8">
         <v>1E-3</v>
       </c>
@@ -2011,39 +2070,39 @@
       <c r="G31" s="12">
         <v>100</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15">
+      <c r="H31" s="23"/>
+      <c r="I31" s="14">
         <v>1E-3</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="14">
         <v>0.92859999999999998</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="14">
         <v>1</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="14">
         <v>0.63139999999999996</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="14">
         <v>0.84179999999999999</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" s="8" t="s">
+      <c r="P31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>29</v>
+      <c r="S31" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="5:20" x14ac:dyDescent="0.35">
@@ -2056,7 +2115,7 @@
       <c r="G32" s="8">
         <v>100</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="1">
         <v>1E-3</v>
       </c>
@@ -2088,7 +2147,7 @@
         <v>23</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="5:19" x14ac:dyDescent="0.35">
@@ -2101,7 +2160,7 @@
       <c r="G33" s="8">
         <v>100</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="9">
         <v>1E-4</v>
       </c>
@@ -2146,7 +2205,7 @@
       <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="9">
         <v>1E-4</v>
       </c>
@@ -2191,7 +2250,7 @@
       <c r="G35" s="8">
         <v>100</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="9">
         <v>1E-4</v>
       </c>
@@ -2236,7 +2295,7 @@
       <c r="G36" s="8">
         <v>100</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="9">
         <v>1E-4</v>
       </c>
@@ -2273,11 +2332,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="K2:N2"/>
     <mergeCell ref="S5:S26"/>
     <mergeCell ref="S27:S28"/>
     <mergeCell ref="H27:H36"/>
@@ -2289,9 +2343,771 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6DBAE-626E-4512-B6E6-0825E56A59F1}">
+  <dimension ref="B2:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="8" width="8.7265625" style="16"/>
+    <col min="9" max="9" width="7" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="16" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="17">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17">
+        <v>64</v>
+      </c>
+      <c r="D5" s="17">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.876</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1024</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.99695699999999998</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0.88203500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="17">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17">
+        <v>64</v>
+      </c>
+      <c r="D6" s="17">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="17">
+        <v>512</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0.997587</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.89490000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="17">
+        <v>27</v>
+      </c>
+      <c r="C7" s="17">
+        <v>64</v>
+      </c>
+      <c r="D7" s="17">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.8992</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="17">
+        <v>256</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.99803200000000003</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.90959500000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K8" s="16">
+        <v>1024</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K9" s="16">
+        <v>512</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C523007-AF36-4B4A-8C32-57E4C8F48C0E}">
+  <dimension ref="E2:R14"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="8.7265625" style="13"/>
+    <col min="5" max="5" width="15.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="13"/>
+    <col min="8" max="8" width="31.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="13"/>
+    <col min="10" max="10" width="6.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="86.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E5" s="8">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8">
+        <v>64</v>
+      </c>
+      <c r="G5" s="8">
+        <v>100</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E6" s="8">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8">
+        <v>100</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="17">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0.59940000000000004</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E7" s="12">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12">
+        <v>64</v>
+      </c>
+      <c r="G7" s="12">
+        <v>100</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="12">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E8" s="8">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8">
+        <v>64</v>
+      </c>
+      <c r="G8" s="8">
+        <v>100</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="17">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.6431</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0.7419</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E9" s="8">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8">
+        <v>64</v>
+      </c>
+      <c r="G9" s="8">
+        <v>100</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="17">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E10" s="8">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>64</v>
+      </c>
+      <c r="G10" s="8">
+        <v>100</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="17">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E11" s="8">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8">
+        <v>64</v>
+      </c>
+      <c r="G11" s="8">
+        <v>100</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="17">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E12" s="8">
+        <v>32</v>
+      </c>
+      <c r="F12" s="8">
+        <v>64</v>
+      </c>
+      <c r="G12" s="8">
+        <v>100</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="17">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0.7752</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.85750000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>